--- a/final_data_pipeline/output/325311longform.xlsx
+++ b/final_data_pipeline/output/325311longform.xlsx
@@ -1032,7 +1032,7 @@
         <v>153</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -1121,7 +1121,7 @@
         <v>154</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1210,7 +1210,7 @@
         <v>153</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1299,7 +1299,7 @@
         <v>153</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1388,7 +1388,7 @@
         <v>154</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1477,7 +1477,7 @@
         <v>154</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1566,7 +1566,7 @@
         <v>153</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1655,7 +1655,7 @@
         <v>154</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1744,7 +1744,7 @@
         <v>153</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1833,7 +1833,7 @@
         <v>153</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1922,7 +1922,7 @@
         <v>154</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -2011,7 +2011,7 @@
         <v>154</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -3702,7 +3702,7 @@
         <v>153</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3791,7 +3791,7 @@
         <v>153</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3880,7 +3880,7 @@
         <v>153</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3969,7 +3969,7 @@
         <v>154</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -4058,7 +4058,7 @@
         <v>154</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -4147,7 +4147,7 @@
         <v>154</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -13314,7 +13314,7 @@
         <v>154</v>
       </c>
       <c r="AA140">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB140">
         <v>8000</v>
@@ -13403,7 +13403,7 @@
         <v>154</v>
       </c>
       <c r="AA141">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB141">
         <v>8000</v>
@@ -13492,7 +13492,7 @@
         <v>153</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -13581,7 +13581,7 @@
         <v>154</v>
       </c>
       <c r="AA143">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB143">
         <v>8000</v>
@@ -13670,7 +13670,7 @@
         <v>153</v>
       </c>
       <c r="AA144">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB144">
         <v>8000</v>
@@ -13759,7 +13759,7 @@
         <v>154</v>
       </c>
       <c r="AA145">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB145">
         <v>8000</v>
@@ -13848,7 +13848,7 @@
         <v>153</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -13937,7 +13937,7 @@
         <v>154</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -14026,7 +14026,7 @@
         <v>153</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -14115,7 +14115,7 @@
         <v>153</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -14204,7 +14204,7 @@
         <v>153</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -14293,7 +14293,7 @@
         <v>154</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -17052,7 +17052,7 @@
         <v>153</v>
       </c>
       <c r="AA182">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB182">
         <v>8000</v>
@@ -17144,7 +17144,7 @@
         <v>153</v>
       </c>
       <c r="AA183">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB183">
         <v>8000</v>
@@ -17233,7 +17233,7 @@
         <v>153</v>
       </c>
       <c r="AA184">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB184">
         <v>8000</v>
@@ -17322,7 +17322,7 @@
         <v>154</v>
       </c>
       <c r="AA185">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB185">
         <v>8000</v>
@@ -17411,7 +17411,7 @@
         <v>153</v>
       </c>
       <c r="AA186">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB186">
         <v>8000</v>
@@ -17500,7 +17500,7 @@
         <v>154</v>
       </c>
       <c r="AA187">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB187">
         <v>8000</v>
@@ -17589,7 +17589,7 @@
         <v>154</v>
       </c>
       <c r="AA188">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB188">
         <v>8000</v>
@@ -17678,7 +17678,7 @@
         <v>154</v>
       </c>
       <c r="AA189">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB189">
         <v>8000</v>
@@ -17767,7 +17767,7 @@
         <v>153</v>
       </c>
       <c r="AA190">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB190">
         <v>8000</v>
@@ -17856,7 +17856,7 @@
         <v>153</v>
       </c>
       <c r="AA191">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB191">
         <v>8000</v>
@@ -17945,7 +17945,7 @@
         <v>153</v>
       </c>
       <c r="AA192">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB192">
         <v>8000</v>
@@ -18034,7 +18034,7 @@
         <v>154</v>
       </c>
       <c r="AA193">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB193">
         <v>8000</v>
@@ -18123,7 +18123,7 @@
         <v>154</v>
       </c>
       <c r="AA194">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB194">
         <v>8000</v>
@@ -19280,7 +19280,7 @@
         <v>153</v>
       </c>
       <c r="AA207">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB207">
         <v>8000</v>
@@ -19369,7 +19369,7 @@
         <v>153</v>
       </c>
       <c r="AA208">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB208">
         <v>8000</v>
@@ -19461,7 +19461,7 @@
         <v>153</v>
       </c>
       <c r="AA209">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB209">
         <v>8000</v>
@@ -19550,7 +19550,7 @@
         <v>153</v>
       </c>
       <c r="AA210">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB210">
         <v>8000</v>
@@ -19639,7 +19639,7 @@
         <v>154</v>
       </c>
       <c r="AA211">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB211">
         <v>8000</v>
@@ -19728,7 +19728,7 @@
         <v>154</v>
       </c>
       <c r="AA212">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB212">
         <v>8000</v>
@@ -19817,7 +19817,7 @@
         <v>154</v>
       </c>
       <c r="AA213">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB213">
         <v>8000</v>
@@ -20440,7 +20440,7 @@
         <v>154</v>
       </c>
       <c r="AA220">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB220">
         <v>8000</v>
@@ -20529,7 +20529,7 @@
         <v>154</v>
       </c>
       <c r="AA221">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB221">
         <v>8000</v>
@@ -20618,7 +20618,7 @@
         <v>153</v>
       </c>
       <c r="AA222">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB222">
         <v>8000</v>
@@ -20707,7 +20707,7 @@
         <v>153</v>
       </c>
       <c r="AA223">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB223">
         <v>8000</v>
@@ -20796,7 +20796,7 @@
         <v>154</v>
       </c>
       <c r="AA224">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB224">
         <v>8000</v>
@@ -20885,7 +20885,7 @@
         <v>153</v>
       </c>
       <c r="AA225">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB225">
         <v>8000</v>
@@ -22042,7 +22042,7 @@
         <v>154</v>
       </c>
       <c r="AA238">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB238">
         <v>8000</v>
@@ -22131,7 +22131,7 @@
         <v>154</v>
       </c>
       <c r="AA239">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB239">
         <v>8000</v>
@@ -22220,7 +22220,7 @@
         <v>154</v>
       </c>
       <c r="AA240">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB240">
         <v>8000</v>
@@ -22309,7 +22309,7 @@
         <v>154</v>
       </c>
       <c r="AA241">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB241">
         <v>8000</v>
@@ -22398,7 +22398,7 @@
         <v>154</v>
       </c>
       <c r="AA242">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB242">
         <v>8000</v>
@@ -22487,7 +22487,7 @@
         <v>154</v>
       </c>
       <c r="AA243">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB243">
         <v>8000</v>
@@ -22576,7 +22576,7 @@
         <v>154</v>
       </c>
       <c r="AA244">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB244">
         <v>8000</v>
@@ -22665,7 +22665,7 @@
         <v>154</v>
       </c>
       <c r="AA245">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB245">
         <v>8000</v>
@@ -22754,7 +22754,7 @@
         <v>154</v>
       </c>
       <c r="AA246">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB246">
         <v>8000</v>
@@ -22843,7 +22843,7 @@
         <v>153</v>
       </c>
       <c r="AA247">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB247">
         <v>8000</v>
@@ -22932,7 +22932,7 @@
         <v>153</v>
       </c>
       <c r="AA248">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB248">
         <v>8000</v>
@@ -23021,7 +23021,7 @@
         <v>153</v>
       </c>
       <c r="AA249">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB249">
         <v>8000</v>
@@ -23110,7 +23110,7 @@
         <v>153</v>
       </c>
       <c r="AA250">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB250">
         <v>8000</v>
@@ -23199,7 +23199,7 @@
         <v>153</v>
       </c>
       <c r="AA251">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB251">
         <v>8000</v>
@@ -23288,7 +23288,7 @@
         <v>154</v>
       </c>
       <c r="AA252">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB252">
         <v>8000</v>
@@ -23377,7 +23377,7 @@
         <v>154</v>
       </c>
       <c r="AA253">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB253">
         <v>8000</v>
@@ -23466,7 +23466,7 @@
         <v>153</v>
       </c>
       <c r="AA254">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB254">
         <v>8000</v>
@@ -23555,7 +23555,7 @@
         <v>154</v>
       </c>
       <c r="AA255">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB255">
         <v>8000</v>
@@ -23644,7 +23644,7 @@
         <v>153</v>
       </c>
       <c r="AA256">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB256">
         <v>8000</v>
@@ -23733,7 +23733,7 @@
         <v>153</v>
       </c>
       <c r="AA257">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB257">
         <v>8000</v>
@@ -23822,7 +23822,7 @@
         <v>154</v>
       </c>
       <c r="AA258">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB258">
         <v>8000</v>
@@ -23911,7 +23911,7 @@
         <v>153</v>
       </c>
       <c r="AA259">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB259">
         <v>8000</v>
@@ -24000,7 +24000,7 @@
         <v>153</v>
       </c>
       <c r="AA260">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB260">
         <v>8000</v>
@@ -24089,7 +24089,7 @@
         <v>154</v>
       </c>
       <c r="AA261">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB261">
         <v>8000</v>
@@ -24178,7 +24178,7 @@
         <v>153</v>
       </c>
       <c r="AA262">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB262">
         <v>8000</v>
@@ -24267,7 +24267,7 @@
         <v>153</v>
       </c>
       <c r="AA263">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB263">
         <v>8000</v>
@@ -24356,7 +24356,7 @@
         <v>153</v>
       </c>
       <c r="AA264">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB264">
         <v>8000</v>
@@ -24445,7 +24445,7 @@
         <v>153</v>
       </c>
       <c r="AA265">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB265">
         <v>8000</v>
@@ -24534,7 +24534,7 @@
         <v>153</v>
       </c>
       <c r="AA266">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB266">
         <v>8000</v>
@@ -24623,7 +24623,7 @@
         <v>153</v>
       </c>
       <c r="AA267">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB267">
         <v>8000</v>
@@ -24712,7 +24712,7 @@
         <v>153</v>
       </c>
       <c r="AA268">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB268">
         <v>8000</v>
@@ -24801,7 +24801,7 @@
         <v>154</v>
       </c>
       <c r="AA269">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB269">
         <v>8000</v>
@@ -24890,7 +24890,7 @@
         <v>154</v>
       </c>
       <c r="AA270">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB270">
         <v>8000</v>
@@ -24979,7 +24979,7 @@
         <v>154</v>
       </c>
       <c r="AA271">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB271">
         <v>8000</v>
@@ -25068,7 +25068,7 @@
         <v>153</v>
       </c>
       <c r="AA272">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB272">
         <v>8000</v>
@@ -25157,7 +25157,7 @@
         <v>154</v>
       </c>
       <c r="AA273">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB273">
         <v>8000</v>
@@ -25780,7 +25780,7 @@
         <v>153</v>
       </c>
       <c r="AA280">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB280">
         <v>8000</v>
@@ -25869,7 +25869,7 @@
         <v>154</v>
       </c>
       <c r="AA281">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB281">
         <v>8000</v>
@@ -25958,7 +25958,7 @@
         <v>153</v>
       </c>
       <c r="AA282">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB282">
         <v>8000</v>
@@ -26047,7 +26047,7 @@
         <v>153</v>
       </c>
       <c r="AA283">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB283">
         <v>8000</v>
@@ -26136,7 +26136,7 @@
         <v>154</v>
       </c>
       <c r="AA284">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB284">
         <v>8000</v>
@@ -26225,7 +26225,7 @@
         <v>154</v>
       </c>
       <c r="AA285">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB285">
         <v>8000</v>
@@ -27382,7 +27382,7 @@
         <v>153</v>
       </c>
       <c r="AA298">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB298">
         <v>8000</v>
@@ -27471,7 +27471,7 @@
         <v>153</v>
       </c>
       <c r="AA299">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB299">
         <v>8000</v>
@@ -27560,7 +27560,7 @@
         <v>154</v>
       </c>
       <c r="AA300">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB300">
         <v>8000</v>
@@ -27649,7 +27649,7 @@
         <v>154</v>
       </c>
       <c r="AA301">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB301">
         <v>8000</v>
@@ -27738,7 +27738,7 @@
         <v>153</v>
       </c>
       <c r="AA302">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB302">
         <v>8000</v>
@@ -27827,7 +27827,7 @@
         <v>154</v>
       </c>
       <c r="AA303">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB303">
         <v>8000</v>
@@ -30678,7 +30678,7 @@
         <v>154</v>
       </c>
       <c r="AA335">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB335">
         <v>8000</v>
@@ -30767,7 +30767,7 @@
         <v>154</v>
       </c>
       <c r="AA336">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB336">
         <v>8000</v>
@@ -30856,7 +30856,7 @@
         <v>153</v>
       </c>
       <c r="AA337">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB337">
         <v>8000</v>
@@ -30945,7 +30945,7 @@
         <v>153</v>
       </c>
       <c r="AA338">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB338">
         <v>8000</v>
@@ -31034,7 +31034,7 @@
         <v>153</v>
       </c>
       <c r="AA339">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB339">
         <v>8000</v>
@@ -31123,7 +31123,7 @@
         <v>154</v>
       </c>
       <c r="AA340">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB340">
         <v>8000</v>
@@ -31212,7 +31212,7 @@
         <v>153</v>
       </c>
       <c r="AA341">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB341">
         <v>8000</v>
@@ -31301,7 +31301,7 @@
         <v>153</v>
       </c>
       <c r="AA342">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB342">
         <v>8000</v>
@@ -31390,7 +31390,7 @@
         <v>154</v>
       </c>
       <c r="AA343">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB343">
         <v>8000</v>
@@ -31479,7 +31479,7 @@
         <v>154</v>
       </c>
       <c r="AA344">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB344">
         <v>8000</v>
@@ -31568,7 +31568,7 @@
         <v>154</v>
       </c>
       <c r="AA345">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB345">
         <v>8000</v>
@@ -31657,7 +31657,7 @@
         <v>154</v>
       </c>
       <c r="AA346">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB346">
         <v>8000</v>
@@ -31746,7 +31746,7 @@
         <v>154</v>
       </c>
       <c r="AA347">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB347">
         <v>8000</v>
@@ -31835,7 +31835,7 @@
         <v>153</v>
       </c>
       <c r="AA348">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB348">
         <v>8000</v>
@@ -31927,7 +31927,7 @@
         <v>153</v>
       </c>
       <c r="AA349">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB349">
         <v>8000</v>
@@ -32016,7 +32016,7 @@
         <v>153</v>
       </c>
       <c r="AA350">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB350">
         <v>8000</v>
@@ -32105,7 +32105,7 @@
         <v>153</v>
       </c>
       <c r="AA351">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB351">
         <v>8000</v>
@@ -32194,7 +32194,7 @@
         <v>153</v>
       </c>
       <c r="AA352">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB352">
         <v>8000</v>
@@ -32283,7 +32283,7 @@
         <v>154</v>
       </c>
       <c r="AA353">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB353">
         <v>8000</v>
